--- a/medicine/Mort/Tombe_des_Chaises_et_des_Boucliers/Tombe_des_Chaises_et_des_Boucliers.xlsx
+++ b/medicine/Mort/Tombe_des_Chaises_et_des_Boucliers/Tombe_des_Chaises_et_des_Boucliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe des Chaises et des Boucliers (en italien, Tomba degli Scudi e delle Sedie) est une tombe étrusque de la nécropole de Banditaccia à Cerveteri.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe des Chaises et des Boucliers se trouve avec la Tomba dei Leoni dipinti et la Tomba dell'Argilla à l'intérieur du  Tumulus degli Scudi e delle Sedie, qui avec ses 40 m de diamètre est un des plus grands de la nécropole.
 C'est une tombe a camera réalisée entre la fin du VIIe et le début du VIe siècle av. J.-C.
 Le dromos d'entrée donne accès à l'atrium sur lequel s'ouvrent latéralement deux chambres et une salle rectangulaire dont le toit à forme plane comporte des poutres en relief (tombe a camera).
-Six lits sculptés dans le tuf avec pieds à pilier et coussins en forme de demi-lune étaient destinées aux dépositions masculines tandis que les femmes étaient déposées dans des cercueils à sarcophage[1].
+Six lits sculptés dans le tuf avec pieds à pilier et coussins en forme de demi-lune étaient destinées aux dépositions masculines tandis que les femmes étaient déposées dans des cercueils à sarcophage.
 Quatorze boucliers sont gravés sur les parois, en particulier entre les portes des chambres d'apparat de la paroi du fond, au-dessus de fauteuils de genre crapaud, sculptés dans la roche. 
-Ces sièges sont constitués d'un large tambour, à dossier évasé, accompagné d'un petit banc en repose-pieds, destinées à des statues des ancêtres en terre cuite (similaires aux supports des  canopes de Chiusi, ils seront repris plus tard - trône Corsini du IVe – IIIe siècle av. J.-C.- mais comme représentation  de type rituel plus que semblables aux meubles du temps du mort[2]).
+Ces sièges sont constitués d'un large tambour, à dossier évasé, accompagné d'un petit banc en repose-pieds, destinées à des statues des ancêtres en terre cuite (similaires aux supports des  canopes de Chiusi, ils seront repris plus tard - trône Corsini du IVe – IIIe siècle av. J.-C.- mais comme représentation  de type rituel plus que semblables aux meubles du temps du mort).
 </t>
         </is>
       </c>
